--- a/medicine/Psychotrope/Reinheitsgebot/Reinheitsgebot.xlsx
+++ b/medicine/Psychotrope/Reinheitsgebot/Reinheitsgebot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Reinheitsgebot (prononcé en allemand : [ˈʁaɪnhaɪtsɡəboːt] Écouter), également connu sous le nom français de « décret sur la pureté de la bière », précise les ingrédients autorisés dans le brassage d'une bière en Allemagne. Datant de 1516, il constitue l'un des plus vieux décrets alimentaires européens[1],[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Reinheitsgebot (prononcé en allemand : [ˈʁaɪnhaɪtsɡəboːt] Écouter), également connu sous le nom français de « décret sur la pureté de la bière », précise les ingrédients autorisés dans le brassage d'une bière en Allemagne. Datant de 1516, il constitue l'un des plus vieux décrets alimentaires européens,. 
 Le Münchner Reinheitsgebot (Munich) date lui de 1487.
 Il continue d'être suivi par la majorité des brasseurs allemands, quoique l'harmonisation européenne des dernières décennies ait assoupli leurs obligations.
 </t>
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Reinheitsgebot fut édicté le 23 avril 1516 par le duc Guillaume IV de Bavière. Il prescrivait les standards dans la fabrication et la commercialisation de la bière. En particulier, les seuls ingrédients autorisés par le texte étaient le malt d'orge (orge germée et séchée), le houblon et l'eau. La levure n'était pas mentionnée dans le décret, sa nature étant inconnue à l'époque.
 On a souvent expliqué cet édit comme une obligation de brasser la bière avec de l'orge, pour que le blé soit intégralement employé pour le pain, en période de famine. Cette vision hygiéniste oublie cependant que la bière était, en Bavière, à l'époque, considérée comme un pain liquide, un aliment de base à part entière.
@@ -555,7 +569,9 @@
           <t>Aujourd'hui</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En raison de la réglementation européenne, d'autres ingrédients sont autorisés dans les bières allemandes, mais la majorité des brasseurs allemands continuent à suivre les prescriptions du Reinheitsgebot, considéré comme gage de qualité.
 </t>
